--- a/NL/FIN.xlsx
+++ b/NL/FIN.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="317">
   <si>
     <t>AC.Oulu</t>
   </si>
@@ -789,6 +789,42 @@
     <t>H</t>
   </si>
   <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2021/2022</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>27.3%</t>
   </si>
   <si>
@@ -877,6 +913,9 @@
   </si>
   <si>
     <t>42.7%</t>
+  </si>
+  <si>
+    <t>100.0%</t>
   </si>
   <si>
     <t>66.7%</t>
@@ -10265,187 +10304,204 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="n">
-        <v>2012.0</v>
+      <c r="B2" t="s">
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="n">
-        <v>2013.0</v>
+      <c r="B3" t="s">
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="n">
-        <v>2014.0</v>
+      <c r="B4" t="s">
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
-        <v>2015.0</v>
+      <c r="B5" t="s">
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="n">
-        <v>2016.0</v>
+      <c r="B6" t="s">
+        <v>258</v>
       </c>
       <c r="C6" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="n">
-        <v>2017.0</v>
+      <c r="B7" t="s">
+        <v>259</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="n">
-        <v>2018.0</v>
+      <c r="B8" t="s">
+        <v>260</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>225</v>
       </c>
-      <c r="B9" t="n">
-        <v>2019.0</v>
+      <c r="B9" t="s">
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>226</v>
       </c>
-      <c r="B10" t="n">
-        <v>2020.0</v>
+      <c r="B10" t="s">
+        <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>227</v>
       </c>
-      <c r="B11" t="n">
-        <v>2021.0</v>
+      <c r="B11" t="s">
+        <v>263</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E11" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>228</v>
       </c>
-      <c r="B12" t="n">
-        <v>2022.0</v>
+      <c r="B12" t="s">
+        <v>264</v>
       </c>
       <c r="C12" t="s">
         <v>248</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -10467,164 +10523,178 @@
         <v>252</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="n">
-        <v>2012.0</v>
+      <c r="B2" t="s">
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="n">
-        <v>2013.0</v>
+      <c r="B3" t="s">
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="n">
-        <v>2014.0</v>
+      <c r="B4" t="s">
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
-        <v>2015.0</v>
+      <c r="B5" t="s">
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="n">
-        <v>2016.0</v>
+      <c r="B6" t="s">
+        <v>258</v>
       </c>
       <c r="C6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" t="s">
         <v>291</v>
-      </c>
-      <c r="D6" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="n">
-        <v>2017.0</v>
+      <c r="B7" t="s">
+        <v>259</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="n">
-        <v>2018.0</v>
+      <c r="B8" t="s">
+        <v>260</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>225</v>
       </c>
-      <c r="B9" t="n">
-        <v>2019.0</v>
+      <c r="B9" t="s">
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>226</v>
       </c>
-      <c r="B10" t="n">
-        <v>2020.0</v>
+      <c r="B10" t="s">
+        <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>227</v>
       </c>
-      <c r="B11" t="n">
-        <v>2021.0</v>
+      <c r="B11" t="s">
+        <v>263</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>228</v>
       </c>
-      <c r="B12" t="n">
-        <v>2022.0</v>
+      <c r="B12" t="s">
+        <v>264</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="D12" t="s">
-        <v>284</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
